--- a/Diagramas de UC e Especificações Textuais/4-Especificação do UC do Gestor de Exercícios.xlsx
+++ b/Diagramas de UC e Especificações Textuais/4-Especificação do UC do Gestor de Exercícios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="90">
   <si>
     <t>Nome</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Seleciona Ver Exercícios propostos</t>
   </si>
   <si>
-    <t>Reúne lista de exercícios propostos ao actor</t>
-  </si>
-  <si>
     <t>Apresenta lista de exercícios propostos</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>(Não há exercícios propostos por realizar)</t>
   </si>
   <si>
-    <t>Apresenta menssagem de que todos os exercícios porpostos se encontram realizados</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
@@ -133,12 +127,6 @@
     <t>Ficha proposta passa a estado de resolvida</t>
   </si>
   <si>
-    <t>Seleciona VerFichas propostas</t>
-  </si>
-  <si>
-    <t>Reúne lista de fichas propostas ao actor</t>
-  </si>
-  <si>
     <t>Apresenta lista de fichas propostas</t>
   </si>
   <si>
@@ -157,14 +145,152 @@
     <t>(Não há fichas propostos por realizar)</t>
   </si>
   <si>
-    <t>Apresenta menssagem de que todas as fichas porpostas se encontram realizadas</t>
+    <t>Consultar Exercícios corrigido</t>
+  </si>
+  <si>
+    <t>Actor visualiza exercício já realizado e corrigido</t>
+  </si>
+  <si>
+    <t>Seleciona Ver Exercícios Realizados</t>
+  </si>
+  <si>
+    <t>Reúne lista de exercícios já realizados e corrigidos pelo professor</t>
+  </si>
+  <si>
+    <t>Apresenta lista de exercícios</t>
+  </si>
+  <si>
+    <t>Escolhe exercício a rever</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Extended by&gt;&gt; Ver Nota</t>
+  </si>
+  <si>
+    <t>(Não há exercícios já realizados e corregidos)</t>
+  </si>
+  <si>
+    <t>1.a</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Extended by&gt;&gt; Seleciona Encarregando</t>
+  </si>
+  <si>
+    <t>(volta a 1)</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Consultar Ficha corrigida</t>
+  </si>
+  <si>
+    <t>Actor visualiza ficha já realizada e corrigida</t>
+  </si>
+  <si>
+    <t>Seleciona Ver Fichas Realizadas</t>
+  </si>
+  <si>
+    <t>Reúne lista de fichas já realizadas e corrigidas pelo professor</t>
+  </si>
+  <si>
+    <t>Apresenta lista das fichas</t>
+  </si>
+  <si>
+    <t>Escolhe ficha a rever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepara apresentação de revisão do exercício </t>
+  </si>
+  <si>
+    <t>Prepara apresentação de revisão da ficha</t>
+  </si>
+  <si>
+    <t>(Não há fichas já realizados e corregidos)</t>
+  </si>
+  <si>
+    <t>Seleciona encarregando</t>
+  </si>
+  <si>
+    <t>Actor seleciona um dos seus encarregandos</t>
+  </si>
+  <si>
+    <t>Ter encarregandos</t>
+  </si>
+  <si>
+    <t>Escolhe selecionar encarregando</t>
+  </si>
+  <si>
+    <t>Apresenta lista de encarregandos</t>
+  </si>
+  <si>
+    <t>Reúne lista de exercícios propostos ao Actor</t>
+  </si>
+  <si>
+    <t>Exceção</t>
+  </si>
+  <si>
+    <t>Apresenta mensagem de que todos os exercícios propostos se encontram realizados</t>
+  </si>
+  <si>
+    <t>Seleciona Ver Fichas propostas</t>
+  </si>
+  <si>
+    <t>Reúne lista de fichas propostas ao Actor</t>
+  </si>
+  <si>
+    <t>Apresenta mensagem de que todas as fichas propostas se encontram realizadas</t>
+  </si>
+  <si>
+    <t>(Se Actor for encarregado)</t>
+  </si>
+  <si>
+    <t>Apresenta mensagem de que não existe nenhum exercício realizado e corrigido</t>
+  </si>
+  <si>
+    <t>Apresenta mensagem de que não existe nenhuma ficha realizada e corrigida</t>
+  </si>
+  <si>
+    <t>Seleciona Encarregando</t>
+  </si>
+  <si>
+    <t>Regista Opção</t>
+  </si>
+  <si>
+    <t>Apresenta Perfil de Aluno</t>
+  </si>
+  <si>
+    <t>Reúne lista de encarregandos do Actor</t>
+  </si>
+  <si>
+    <t>Ver nota</t>
+  </si>
+  <si>
+    <t>Visualizada nota do exercício ou ficha em causa</t>
+  </si>
+  <si>
+    <t>Exercício/Ficha já escolhida.</t>
+  </si>
+  <si>
+    <t>(Escolhe ver nota)</t>
+  </si>
+  <si>
+    <t>Recolha informação sobre a nota</t>
+  </si>
+  <si>
+    <t>Apresenta Nota</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +322,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,13 +364,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,8 +386,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3FCA2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -403,19 +555,41 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -433,13 +607,13 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -457,13 +631,54 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -540,11 +755,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,121 +880,259 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,6 +1143,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFF3FCA2"/>
       <color rgb="FFFDFA82"/>
     </mruColors>
   </colors>
@@ -1004,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H40"/>
+  <dimension ref="B1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,10 +1506,10 @@
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1084,212 +1525,212 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="33">
+      <c r="B7" s="32"/>
+      <c r="C7" s="76">
         <v>1</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="24">
+      <c r="B8" s="32"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="28">
         <v>2</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79">
+        <v>3</v>
+      </c>
+      <c r="F9" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="28"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44">
-        <v>3</v>
-      </c>
-      <c r="F9" s="43" t="s">
+      <c r="G9" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="80"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="44">
+        <v>4</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="45"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
-      <c r="C10" s="46">
-        <v>4</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="47" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="14"/>
       <c r="E11" s="13">
         <v>5</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52">
+      <c r="B12" s="32"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50">
         <v>6</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="53"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="32"/>
+      <c r="C13" s="60">
+        <v>7</v>
+      </c>
+      <c r="D13" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68">
+        <v>8</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="69"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68">
+        <v>9</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="69"/>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="32"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73">
+        <v>10</v>
+      </c>
+      <c r="F16" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="72"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="93"/>
+      <c r="H17" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="34"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="55"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="56">
-        <v>7</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64">
-        <v>8</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="65"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64">
-        <v>9</v>
-      </c>
-      <c r="F15" s="66" t="s">
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="34"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="35"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="65"/>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69">
-        <v>10</v>
-      </c>
-      <c r="F16" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="71"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="31"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1297,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1308,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1328,17 +1769,17 @@
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="32"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="11" t="s">
         <v>5</v>
       </c>
@@ -1354,215 +1795,1130 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
-      <c r="C27" s="33">
+      <c r="B27" s="32"/>
+      <c r="C27" s="76">
         <v>1</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25" t="s">
+      <c r="D27" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="24">
+      <c r="B28" s="32"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="28">
         <v>2</v>
       </c>
-      <c r="F28" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="25" t="s">
+      <c r="F28" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="26"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44">
+      <c r="B29" s="32"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79">
         <v>3</v>
       </c>
-      <c r="F29" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="43" t="s">
+      <c r="F29" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="45"/>
+      <c r="H29" s="80"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="28"/>
-      <c r="C30" s="46">
+      <c r="B30" s="32"/>
+      <c r="C30" s="44">
         <v>4</v>
       </c>
-      <c r="D30" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47" t="s">
+      <c r="D30" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="46"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="49" t="s">
+      <c r="H30" s="47" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
-      <c r="C31" s="34"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="14"/>
       <c r="E31" s="13">
         <v>5</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="23"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52">
+      <c r="B32" s="32"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50">
         <v>6</v>
       </c>
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="53"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="32"/>
+      <c r="C33" s="60">
+        <v>7</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="62"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="32"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="68">
+        <v>8</v>
+      </c>
+      <c r="F34" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="69"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="32"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="68">
+        <v>9</v>
+      </c>
+      <c r="F35" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="69"/>
+    </row>
+    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="32"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="73">
+        <v>10</v>
+      </c>
+      <c r="F36" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="72"/>
+      <c r="H36" s="75"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="92"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="93"/>
+      <c r="H37" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="34"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="34"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="35"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="26"/>
+    </row>
+    <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="36"/>
+      <c r="D46" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="97"/>
+      <c r="C47" s="76">
+        <v>1</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="97"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="89">
+        <v>2</v>
+      </c>
+      <c r="F48" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="30"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="97"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="30"/>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="97"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="79">
+        <v>3</v>
+      </c>
+      <c r="F50" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="55"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="28"/>
-      <c r="C33" s="56">
+      <c r="H50" s="80"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="97"/>
+      <c r="C51" s="44">
+        <v>4</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="46"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="97"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="13">
+        <v>5</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="27"/>
+    </row>
+    <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="97"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="50">
+        <v>6</v>
+      </c>
+      <c r="F53" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="53"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="97"/>
+      <c r="C54" s="60">
         <v>7</v>
       </c>
-      <c r="D33" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="61" t="s">
+      <c r="D54" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="62"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="98"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="100"/>
+      <c r="H55" s="103"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="91"/>
+      <c r="C56" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="94"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="54"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="109"/>
+    </row>
+    <row r="58" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="91"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" s="57"/>
+      <c r="H58" s="110"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="104"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="106" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="64">
+      <c r="F59" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="105"/>
+      <c r="H59" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="34"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="22"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="34"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="22"/>
+    </row>
+    <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="35"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="23"/>
+      <c r="H62" s="26"/>
+    </row>
+    <row r="63" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="36"/>
+      <c r="D68" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="63" t="s">
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="97"/>
+      <c r="C69" s="76">
+        <v>1</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="28"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="97"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="89">
+        <v>2</v>
+      </c>
+      <c r="F70" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="G70" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="65"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="64">
+      <c r="H70" s="30"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="97"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="30"/>
+    </row>
+    <row r="72" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="97"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="79">
+        <v>3</v>
+      </c>
+      <c r="F72" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="80"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="97"/>
+      <c r="C73" s="44">
+        <v>4</v>
+      </c>
+      <c r="D73" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E73" s="46"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="63" t="s">
+      <c r="H73" s="47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="97"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="13">
+        <v>5</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="65"/>
-    </row>
-    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="28"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="69">
+      <c r="H74" s="27"/>
+    </row>
+    <row r="75" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="97"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="50">
+        <v>6</v>
+      </c>
+      <c r="F75" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G75" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="53"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="97"/>
+      <c r="C76" s="60">
+        <v>7</v>
+      </c>
+      <c r="D76" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" s="62"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="98"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="100"/>
+      <c r="E77" s="101"/>
+      <c r="F77" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="G77" s="100"/>
+      <c r="H77" s="103"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="91"/>
+      <c r="C78" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" s="94"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="93"/>
+      <c r="H78" s="108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="54"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="109"/>
+    </row>
+    <row r="80" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="91"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="G80" s="57"/>
+      <c r="H80" s="110"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="104"/>
+      <c r="D81" s="105"/>
+      <c r="E81" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="G81" s="105"/>
+      <c r="H81" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="34"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="22"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="34"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="111"/>
+      <c r="H83" s="22"/>
+    </row>
+    <row r="84" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="35"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" s="23"/>
+      <c r="H84" s="26"/>
+    </row>
+    <row r="85" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="116"/>
+      <c r="D90" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="117"/>
+      <c r="F90" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="32"/>
+      <c r="C91" s="119">
+        <v>1</v>
+      </c>
+      <c r="D91" s="120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="121"/>
+      <c r="F91" s="120"/>
+      <c r="G91" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="68"/>
-      <c r="H36" s="71"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="30"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="38" t="s">
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="32"/>
+      <c r="C92" s="123"/>
+      <c r="D92" s="112"/>
+      <c r="E92" s="113">
+        <v>2</v>
+      </c>
+      <c r="F92" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="G92" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="30"/>
+    </row>
+    <row r="93" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="32"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="78"/>
+      <c r="E93" s="79">
+        <v>3</v>
+      </c>
+      <c r="F93" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="G93" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="30"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="31"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="22"/>
+      <c r="H93" s="80"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="32"/>
+      <c r="C94" s="44">
+        <v>4</v>
+      </c>
+      <c r="D94" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E94" s="46"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="32"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="13">
+        <v>5</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="27"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="32"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="18">
+        <v>6</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="27"/>
+    </row>
+    <row r="97" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="124"/>
+      <c r="C97" s="126"/>
+      <c r="D97" s="127"/>
+      <c r="E97" s="128"/>
+      <c r="F97" s="129" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97" s="127"/>
+      <c r="H97" s="53"/>
+    </row>
+    <row r="98" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="7"/>
+      <c r="J101" s="125"/>
+    </row>
+    <row r="102" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="116"/>
+      <c r="D103" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="117"/>
+      <c r="F103" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="32"/>
+      <c r="C104" s="130">
+        <v>0</v>
+      </c>
+      <c r="D104" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="E104" s="132"/>
+      <c r="F104" s="131"/>
+      <c r="G104" s="131" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" s="133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="32"/>
+      <c r="C105" s="134"/>
+      <c r="D105" s="135"/>
+      <c r="E105" s="136">
+        <v>1</v>
+      </c>
+      <c r="F105" s="137" t="s">
+        <v>88</v>
+      </c>
+      <c r="G105" s="138" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="139"/>
+    </row>
+    <row r="106" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="124"/>
+      <c r="C106" s="140"/>
+      <c r="D106" s="141"/>
+      <c r="E106" s="142">
+        <v>2</v>
+      </c>
+      <c r="F106" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="G106" s="141" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="143"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F109" s="125"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="85">
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="C102:F102"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="B90:B97"/>
+    <mergeCell ref="H91:H93"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="H81:H84"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="B46:B55"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="E48:E49"/>
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="H37:H40"/>
     <mergeCell ref="C38:C39"/>

--- a/Diagramas de UC e Especificações Textuais/4-Especificação do UC do Gestor de Exercícios.xlsx
+++ b/Diagramas de UC e Especificações Textuais/4-Especificação do UC do Gestor de Exercícios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="131">
   <si>
     <t>Nome</t>
   </si>
@@ -64,9 +64,21 @@
     <t>Alternativa 1</t>
   </si>
   <si>
+    <t>5.a</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>(volta a 3)</t>
+  </si>
+  <si>
     <t>Realizar Exercício</t>
   </si>
   <si>
@@ -284,13 +296,124 @@
   </si>
   <si>
     <t>Apresenta Nota</t>
+  </si>
+  <si>
+    <t>Adicionar Exercício</t>
+  </si>
+  <si>
+    <t>Actor adiciona exercício no sistema</t>
+  </si>
+  <si>
+    <t>Exercício inserido no sistema</t>
+  </si>
+  <si>
+    <t>Prepara formulário de inserção de exercício</t>
+  </si>
+  <si>
+    <t>Envia Formulário de exercício preenchido</t>
+  </si>
+  <si>
+    <t>Valída formulário de exercício</t>
+  </si>
+  <si>
+    <t>Insere exercício no sistema</t>
+  </si>
+  <si>
+    <t>Associa exercício e professor</t>
+  </si>
+  <si>
+    <t>&lt;&lt;include&gt;&gt; Selecionar Aluno</t>
+  </si>
+  <si>
+    <t>Associa exercício e aluno</t>
+  </si>
+  <si>
+    <t>Seleciona inserir exercício</t>
+  </si>
+  <si>
+    <t>Apresenta formulário  de inserção</t>
+  </si>
+  <si>
+    <t>(Formulário inválido)</t>
+  </si>
+  <si>
+    <t>Reporta erro ao Actor</t>
+  </si>
+  <si>
+    <t>Selecionar aluno</t>
+  </si>
+  <si>
+    <t>Actor seleciona um dos seus alunos</t>
+  </si>
+  <si>
+    <t>Escolhe selecionar aluno</t>
+  </si>
+  <si>
+    <t>Reúne lista de alunos do Actor</t>
+  </si>
+  <si>
+    <t>Seleciona aluno</t>
+  </si>
+  <si>
+    <t>Adicionar Ficha coletiva</t>
+  </si>
+  <si>
+    <t>Actor adiciona ficha no sistema</t>
+  </si>
+  <si>
+    <t>Ficha inserido no sistema</t>
+  </si>
+  <si>
+    <t>Seleciona inserir Ficha</t>
+  </si>
+  <si>
+    <t>Prepara formulário de inserção de Ficha Colectiva</t>
+  </si>
+  <si>
+    <t>Envia Formulário de Ficha preenchido</t>
+  </si>
+  <si>
+    <t>Valída formulário de Ficha</t>
+  </si>
+  <si>
+    <t>Insere Ficha no sistema</t>
+  </si>
+  <si>
+    <t>Associa Ficha e professor</t>
+  </si>
+  <si>
+    <t>&lt;&lt;include&gt;&gt; Selecionar Turma</t>
+  </si>
+  <si>
+    <t>Associa exercício e alunos</t>
+  </si>
+  <si>
+    <t>Selecionar turma</t>
+  </si>
+  <si>
+    <t>Actor seleciona uma das turmas que leciona</t>
+  </si>
+  <si>
+    <t>Escolhe selecionar turma</t>
+  </si>
+  <si>
+    <t>Reúne lista de turmas do Actor</t>
+  </si>
+  <si>
+    <t>Apresenta lista turmas</t>
+  </si>
+  <si>
+    <t>Apresenta lista da alunos</t>
+  </si>
+  <si>
+    <t>Seleciona turma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,8 +453,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,40 +1020,51 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,20 +1084,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -969,6 +1117,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -977,98 +1136,98 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1078,62 +1237,77 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1445,10 +1619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J109"/>
+  <dimension ref="B1:J173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F173" sqref="F173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1479,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1499,17 +1673,17 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1525,212 +1699,212 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
-      <c r="C7" s="76">
+      <c r="B7" s="37"/>
+      <c r="C7" s="87">
         <v>1</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29" t="s">
+      <c r="D7" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="28">
+      <c r="B8" s="37"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="33">
         <v>2</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="29" t="s">
+      <c r="F8" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="30"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79">
+      <c r="B9" s="37"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="90">
         <v>3</v>
       </c>
-      <c r="F9" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="78" t="s">
+      <c r="F9" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="44">
+      <c r="B10" s="37"/>
+      <c r="C10" s="48">
         <v>4</v>
       </c>
-      <c r="D10" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45" t="s">
+      <c r="D10" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="14"/>
       <c r="E11" s="13">
         <v>5</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="27"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50">
+      <c r="B12" s="37"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54">
         <v>6</v>
       </c>
-      <c r="F12" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="52" t="s">
+      <c r="F12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="53"/>
+      <c r="H12" s="57"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
-      <c r="C13" s="60">
+      <c r="B13" s="37"/>
+      <c r="C13" s="71">
         <v>7</v>
       </c>
-      <c r="D13" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64" t="s">
+      <c r="D13" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="65" t="s">
-        <v>29</v>
+      <c r="H13" s="76" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68">
+      <c r="B14" s="37"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79">
         <v>8</v>
       </c>
-      <c r="F14" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="67" t="s">
+      <c r="F14" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="69"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68">
+      <c r="B15" s="37"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="79">
         <v>9</v>
       </c>
-      <c r="F15" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="67" t="s">
+      <c r="F15" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73">
+      <c r="B16" s="37"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84">
         <v>10</v>
       </c>
-      <c r="F16" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="75"/>
+      <c r="F16" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="83"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="93"/>
-      <c r="H17" s="21" t="s">
-        <v>56</v>
+      <c r="B17" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="104"/>
+      <c r="H17" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="40" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="39"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="40"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="35"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1738,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1749,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1769,17 +1943,17 @@
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="36"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="11" t="s">
         <v>5</v>
       </c>
@@ -1795,212 +1969,212 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
-      <c r="C27" s="76">
+      <c r="B27" s="37"/>
+      <c r="C27" s="87">
         <v>1</v>
       </c>
-      <c r="D27" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29" t="s">
+      <c r="D27" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="28">
+      <c r="B28" s="37"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="33">
         <v>2</v>
       </c>
-      <c r="F28" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="29" t="s">
+      <c r="F28" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="30"/>
+      <c r="H28" s="35"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="32"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79">
+      <c r="B29" s="37"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="90">
         <v>3</v>
       </c>
-      <c r="F29" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="78" t="s">
+      <c r="F29" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="80"/>
+      <c r="H29" s="91"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="32"/>
-      <c r="C30" s="44">
+      <c r="B30" s="37"/>
+      <c r="C30" s="48">
         <v>4</v>
       </c>
-      <c r="D30" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45" t="s">
+      <c r="D30" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="50"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="32"/>
-      <c r="C31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="14"/>
       <c r="E31" s="13">
         <v>5</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="27"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="32"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50">
+      <c r="B32" s="37"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54">
         <v>6</v>
       </c>
-      <c r="F32" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="52" t="s">
+      <c r="F32" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="53"/>
+      <c r="H32" s="57"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="32"/>
-      <c r="C33" s="60">
+      <c r="B33" s="37"/>
+      <c r="C33" s="71">
         <v>7</v>
       </c>
-      <c r="D33" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="64" t="s">
+      <c r="D33" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="73"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="65" t="s">
-        <v>29</v>
+      <c r="H33" s="76" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="68">
+      <c r="B34" s="37"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="79">
         <v>8</v>
       </c>
-      <c r="F34" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="67" t="s">
+      <c r="F34" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="69"/>
+      <c r="H34" s="80"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="68">
+      <c r="B35" s="37"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="79">
         <v>9</v>
       </c>
-      <c r="F35" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="67" t="s">
+      <c r="F35" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="69"/>
+      <c r="H35" s="80"/>
     </row>
     <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="32"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="73">
+      <c r="B36" s="37"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="84">
         <v>10</v>
       </c>
-      <c r="F36" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="72"/>
-      <c r="H36" s="75"/>
+      <c r="F36" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="83"/>
+      <c r="H36" s="86"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="93"/>
-      <c r="H37" s="21" t="s">
-        <v>56</v>
+      <c r="B37" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="103"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="104"/>
+      <c r="H37" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="34"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="40" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="26"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="39"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="26"/>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="40"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="22"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="34"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="35"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="26"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="30"/>
     </row>
     <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2008,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2019,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -2044,10 +2218,10 @@
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="96" t="s">
+      <c r="B46" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="36"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="11" t="s">
         <v>5</v>
       </c>
@@ -2063,234 +2237,234 @@
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="97"/>
-      <c r="C47" s="76">
+      <c r="B47" s="108"/>
+      <c r="C47" s="87">
         <v>1</v>
       </c>
-      <c r="D47" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29" t="s">
+      <c r="D47" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="33"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="30" t="s">
+      <c r="H47" s="35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="97"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="89">
+      <c r="B48" s="108"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="100">
         <v>2</v>
       </c>
-      <c r="F48" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" s="85" t="s">
+      <c r="F48" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="30"/>
+      <c r="H48" s="35"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="97"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="30"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="35"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="97"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="79">
+      <c r="B50" s="108"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="90">
         <v>3</v>
       </c>
-      <c r="F50" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" s="78" t="s">
+      <c r="F50" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="80"/>
+      <c r="H50" s="91"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="97"/>
-      <c r="C51" s="44">
+      <c r="B51" s="108"/>
+      <c r="C51" s="48">
         <v>4</v>
       </c>
-      <c r="D51" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="46"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45" t="s">
+      <c r="D51" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="50"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="47" t="s">
+      <c r="H51" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="97"/>
-      <c r="C52" s="37"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="42"/>
       <c r="D52" s="14"/>
       <c r="E52" s="13">
         <v>5</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="27"/>
+      <c r="H52" s="31"/>
     </row>
     <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="97"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="50">
+      <c r="B53" s="108"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="54">
         <v>6</v>
       </c>
-      <c r="F53" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="52" t="s">
+      <c r="F53" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="53"/>
+      <c r="H53" s="57"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="97"/>
-      <c r="C54" s="60">
+      <c r="B54" s="108"/>
+      <c r="C54" s="71">
         <v>7</v>
       </c>
-      <c r="D54" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="62"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="64" t="s">
+      <c r="D54" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="73"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H54" s="65" t="s">
-        <v>29</v>
+      <c r="H54" s="76" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="98"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" s="100"/>
-      <c r="H55" s="103"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="111"/>
+      <c r="H55" s="114"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="91"/>
-      <c r="C56" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="94"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="93"/>
-      <c r="H56" s="108" t="s">
-        <v>16</v>
+      <c r="B56" s="102"/>
+      <c r="C56" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="105"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="119" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="91" t="s">
+      <c r="B57" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="54"/>
+      <c r="C57" s="65"/>
       <c r="D57" s="16"/>
       <c r="E57" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F57" s="55" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="F57" s="66" t="s">
+        <v>57</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="109"/>
+      <c r="H57" s="120"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="91"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="F58" s="59" t="s">
+      <c r="B58" s="102"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" s="68"/>
+      <c r="H58" s="121"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="115"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="G58" s="57"/>
-      <c r="H58" s="110"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="104"/>
-      <c r="D59" s="105"/>
-      <c r="E59" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="G59" s="105"/>
-      <c r="H59" s="21" t="s">
-        <v>56</v>
+      <c r="G59" s="116"/>
+      <c r="H59" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="34"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="40" t="s">
+      <c r="B60" s="39"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G60" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="26"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="39"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="26"/>
+    </row>
+    <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="40"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F60" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="22"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="34"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="22"/>
-    </row>
-    <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="35"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" s="23"/>
-      <c r="H62" s="26"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="30"/>
     </row>
     <row r="63" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2298,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2309,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -2334,10 +2508,10 @@
       <c r="F67" s="10"/>
     </row>
     <row r="68" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="96" t="s">
+      <c r="B68" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="36"/>
+      <c r="C68" s="41"/>
       <c r="D68" s="11" t="s">
         <v>5</v>
       </c>
@@ -2353,234 +2527,234 @@
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="97"/>
-      <c r="C69" s="76">
+      <c r="B69" s="108"/>
+      <c r="C69" s="87">
         <v>1</v>
       </c>
-      <c r="D69" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E69" s="28"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29" t="s">
+      <c r="D69" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="33"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="30" t="s">
+      <c r="H69" s="35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="97"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="81"/>
-      <c r="E70" s="89">
+      <c r="B70" s="108"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="100">
         <v>2</v>
       </c>
-      <c r="F70" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="G70" s="85" t="s">
+      <c r="F70" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="G70" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="30"/>
+      <c r="H70" s="35"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="97"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="90"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="30"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="35"/>
     </row>
     <row r="72" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="97"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="78"/>
-      <c r="E72" s="79">
+      <c r="B72" s="108"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="90">
         <v>3</v>
       </c>
-      <c r="F72" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="G72" s="78" t="s">
+      <c r="F72" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="G72" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H72" s="80"/>
+      <c r="H72" s="91"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="97"/>
-      <c r="C73" s="44">
+      <c r="B73" s="108"/>
+      <c r="C73" s="48">
         <v>4</v>
       </c>
-      <c r="D73" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E73" s="46"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45" t="s">
+      <c r="D73" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" s="50"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H73" s="47" t="s">
+      <c r="H73" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="97"/>
-      <c r="C74" s="37"/>
+      <c r="B74" s="108"/>
+      <c r="C74" s="42"/>
       <c r="D74" s="14"/>
       <c r="E74" s="13">
         <v>5</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="27"/>
+      <c r="H74" s="31"/>
     </row>
     <row r="75" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="97"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="50">
+      <c r="B75" s="108"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="54">
         <v>6</v>
       </c>
-      <c r="F75" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G75" s="52" t="s">
+      <c r="F75" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="G75" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H75" s="53"/>
+      <c r="H75" s="57"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="97"/>
-      <c r="C76" s="60">
+      <c r="B76" s="108"/>
+      <c r="C76" s="71">
         <v>7</v>
       </c>
-      <c r="D76" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="E76" s="62"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="64" t="s">
+      <c r="D76" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" s="73"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H76" s="65" t="s">
-        <v>29</v>
+      <c r="H76" s="76" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="98"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="100"/>
-      <c r="E77" s="101"/>
-      <c r="F77" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="G77" s="100"/>
-      <c r="H77" s="103"/>
+      <c r="B77" s="109"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="111"/>
+      <c r="H77" s="114"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="91"/>
-      <c r="C78" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="D78" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78" s="94"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="93"/>
-      <c r="H78" s="108" t="s">
-        <v>16</v>
+      <c r="B78" s="102"/>
+      <c r="C78" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" s="105"/>
+      <c r="F78" s="106"/>
+      <c r="G78" s="104"/>
+      <c r="H78" s="119" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="91" t="s">
+      <c r="B79" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="54"/>
+      <c r="C79" s="65"/>
       <c r="D79" s="16"/>
       <c r="E79" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F79" s="55" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="F79" s="66" t="s">
+        <v>57</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H79" s="109"/>
+      <c r="H79" s="120"/>
     </row>
     <row r="80" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="91"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="F80" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="G80" s="57"/>
-      <c r="H80" s="110"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="F80" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="G80" s="68"/>
+      <c r="H80" s="121"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="104"/>
-      <c r="D81" s="105"/>
-      <c r="E81" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="F81" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="G81" s="105"/>
-      <c r="H81" s="21" t="s">
-        <v>56</v>
+      <c r="B81" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="115"/>
+      <c r="D81" s="116"/>
+      <c r="E81" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="118" t="s">
+        <v>69</v>
+      </c>
+      <c r="G81" s="116"/>
+      <c r="H81" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="34"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="40" t="s">
+      <c r="B82" s="39"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G82" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="26"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="39"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="122"/>
+      <c r="H83" s="26"/>
+    </row>
+    <row r="84" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="40"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F82" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="22"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="34"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="111"/>
-      <c r="H83" s="22"/>
-    </row>
-    <row r="84" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="35"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G84" s="23"/>
-      <c r="H84" s="26"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="30"/>
     </row>
     <row r="85" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2588,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -2599,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -2610,7 +2784,7 @@
         <v>2</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -2626,128 +2800,128 @@
       <c r="F89" s="10"/>
     </row>
     <row r="90" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="96" t="s">
+      <c r="B90" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="116"/>
-      <c r="D90" s="117" t="s">
+      <c r="C90" s="131"/>
+      <c r="D90" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="E90" s="117"/>
-      <c r="F90" s="117" t="s">
+      <c r="E90" s="132"/>
+      <c r="F90" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="G90" s="117" t="s">
+      <c r="G90" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="H90" s="118" t="s">
+      <c r="H90" s="133" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="32"/>
-      <c r="C91" s="119">
+      <c r="B91" s="37"/>
+      <c r="C91" s="134">
         <v>1</v>
       </c>
-      <c r="D91" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="E91" s="121"/>
-      <c r="F91" s="120"/>
-      <c r="G91" s="120" t="s">
+      <c r="D91" s="135" t="s">
+        <v>73</v>
+      </c>
+      <c r="E91" s="136"/>
+      <c r="F91" s="135"/>
+      <c r="G91" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="H91" s="122" t="s">
+      <c r="H91" s="137" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="32"/>
-      <c r="C92" s="123"/>
-      <c r="D92" s="112"/>
-      <c r="E92" s="113">
+      <c r="B92" s="37"/>
+      <c r="C92" s="138"/>
+      <c r="D92" s="127"/>
+      <c r="E92" s="128">
         <v>2</v>
       </c>
-      <c r="F92" s="114" t="s">
-        <v>83</v>
-      </c>
-      <c r="G92" s="115" t="s">
+      <c r="F92" s="129" t="s">
+        <v>87</v>
+      </c>
+      <c r="G92" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="H92" s="30"/>
+      <c r="H92" s="35"/>
     </row>
     <row r="93" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="32"/>
-      <c r="C93" s="77"/>
-      <c r="D93" s="78"/>
-      <c r="E93" s="79">
+      <c r="B93" s="37"/>
+      <c r="C93" s="88"/>
+      <c r="D93" s="89"/>
+      <c r="E93" s="90">
         <v>3</v>
       </c>
-      <c r="F93" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="G93" s="78" t="s">
+      <c r="F93" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="G93" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H93" s="80"/>
+      <c r="H93" s="91"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="32"/>
-      <c r="C94" s="44">
+      <c r="B94" s="37"/>
+      <c r="C94" s="156">
         <v>4</v>
       </c>
-      <c r="D94" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="E94" s="46"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45" t="s">
+      <c r="D94" s="157" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="158"/>
+      <c r="F94" s="157"/>
+      <c r="G94" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="H94" s="47" t="s">
+      <c r="H94" s="58" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="32"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="13">
+      <c r="B95" s="37"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="23">
         <v>5</v>
       </c>
-      <c r="F95" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G95" s="14" t="s">
+      <c r="F95" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G95" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H95" s="27"/>
+      <c r="H95" s="32"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="32"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="18">
+      <c r="B96" s="37"/>
+      <c r="C96" s="159"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="20">
         <v>6</v>
       </c>
-      <c r="F96" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="G96" s="20" t="s">
+      <c r="F96" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G96" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H96" s="27"/>
+      <c r="H96" s="32"/>
     </row>
     <row r="97" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="124"/>
-      <c r="C97" s="126"/>
-      <c r="D97" s="127"/>
-      <c r="E97" s="128"/>
-      <c r="F97" s="129" t="s">
-        <v>28</v>
-      </c>
-      <c r="G97" s="127"/>
-      <c r="H97" s="53"/>
+      <c r="B97" s="139"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G97" s="61"/>
+      <c r="H97" s="64"/>
     </row>
     <row r="98" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2755,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -2766,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -2777,12 +2951,12 @@
         <v>2</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="7"/>
-      <c r="J101" s="125"/>
+      <c r="J101" s="140"/>
     </row>
     <row r="102" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
@@ -2794,78 +2968,924 @@
       <c r="F102" s="10"/>
     </row>
     <row r="103" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="96" t="s">
+      <c r="B103" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C103" s="116"/>
-      <c r="D103" s="117" t="s">
+      <c r="C103" s="131"/>
+      <c r="D103" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="E103" s="117"/>
-      <c r="F103" s="117" t="s">
+      <c r="E103" s="132"/>
+      <c r="F103" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="G103" s="117" t="s">
+      <c r="G103" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="H103" s="118" t="s">
+      <c r="H103" s="133" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B104" s="32"/>
-      <c r="C104" s="130">
+      <c r="B104" s="37"/>
+      <c r="C104" s="141">
         <v>0</v>
       </c>
-      <c r="D104" s="131" t="s">
-        <v>87</v>
-      </c>
-      <c r="E104" s="132"/>
-      <c r="F104" s="131"/>
-      <c r="G104" s="131" t="s">
+      <c r="D104" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="E104" s="143"/>
+      <c r="F104" s="142"/>
+      <c r="G104" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="H104" s="133" t="s">
+      <c r="H104" s="144" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="32"/>
-      <c r="C105" s="134"/>
-      <c r="D105" s="135"/>
-      <c r="E105" s="136">
+      <c r="B105" s="37"/>
+      <c r="C105" s="145"/>
+      <c r="D105" s="146"/>
+      <c r="E105" s="147">
         <v>1</v>
       </c>
-      <c r="F105" s="137" t="s">
-        <v>88</v>
-      </c>
-      <c r="G105" s="138" t="s">
+      <c r="F105" s="148" t="s">
+        <v>92</v>
+      </c>
+      <c r="G105" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="H105" s="139"/>
+      <c r="H105" s="150"/>
     </row>
     <row r="106" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="124"/>
-      <c r="C106" s="140"/>
-      <c r="D106" s="141"/>
-      <c r="E106" s="142">
+      <c r="B106" s="139"/>
+      <c r="C106" s="151"/>
+      <c r="D106" s="152"/>
+      <c r="E106" s="153">
         <v>2</v>
       </c>
-      <c r="F106" s="141" t="s">
-        <v>89</v>
-      </c>
-      <c r="G106" s="141" t="s">
+      <c r="F106" s="152" t="s">
+        <v>93</v>
+      </c>
+      <c r="G106" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="H106" s="143"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F109" s="125"/>
+      <c r="H106" s="154"/>
+    </row>
+    <row r="107" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="7"/>
+    </row>
+    <row r="110" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="7"/>
+    </row>
+    <row r="111" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="10"/>
+    </row>
+    <row r="112" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="131"/>
+      <c r="D112" s="132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="132"/>
+      <c r="F112" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="132" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" s="133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="108"/>
+      <c r="C113" s="134">
+        <v>1</v>
+      </c>
+      <c r="D113" s="135" t="s">
+        <v>104</v>
+      </c>
+      <c r="E113" s="136"/>
+      <c r="F113" s="135"/>
+      <c r="G113" s="135" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113" s="137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="108"/>
+      <c r="C114" s="138"/>
+      <c r="D114" s="127"/>
+      <c r="E114" s="128">
+        <v>2</v>
+      </c>
+      <c r="F114" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="G114" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="35"/>
+    </row>
+    <row r="115" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="108"/>
+      <c r="C115" s="123"/>
+      <c r="D115" s="124"/>
+      <c r="E115" s="125">
+        <v>3</v>
+      </c>
+      <c r="F115" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="G115" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="91"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="108"/>
+      <c r="C116" s="48">
+        <v>4</v>
+      </c>
+      <c r="D116" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E116" s="50"/>
+      <c r="F116" s="49"/>
+      <c r="G116" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="108"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="13">
+        <v>5</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="31"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="108"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="17">
+        <v>6</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="31"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="108"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="17">
+        <v>7</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="31"/>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="108"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="17">
+        <v>8</v>
+      </c>
+      <c r="F120" s="161" t="s">
+        <v>102</v>
+      </c>
+      <c r="G120" s="14"/>
+      <c r="H120" s="31"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="108"/>
+      <c r="C121" s="42"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="17">
+        <v>9</v>
+      </c>
+      <c r="F121" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="31"/>
+    </row>
+    <row r="122" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="109"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="53"/>
+      <c r="E122" s="54">
+        <v>10</v>
+      </c>
+      <c r="F122" s="160" t="s">
+        <v>32</v>
+      </c>
+      <c r="G122" s="56"/>
+      <c r="H122" s="57"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="E123" s="105"/>
+      <c r="F123" s="106"/>
+      <c r="G123" s="104"/>
+      <c r="H123" s="119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="108"/>
+      <c r="C124" s="65"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="G124" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="120"/>
+    </row>
+    <row r="125" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="109"/>
+      <c r="C125" s="67"/>
+      <c r="D125" s="68"/>
+      <c r="E125" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" s="68"/>
+      <c r="H125" s="121"/>
+    </row>
+    <row r="126" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="7"/>
+    </row>
+    <row r="129" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="7"/>
+    </row>
+    <row r="130" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="10"/>
+    </row>
+    <row r="131" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="131"/>
+      <c r="D131" s="132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="132"/>
+      <c r="F131" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" s="132" t="s">
+        <v>7</v>
+      </c>
+      <c r="H131" s="133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="37"/>
+      <c r="C132" s="134">
+        <v>1</v>
+      </c>
+      <c r="D132" s="135" t="s">
+        <v>110</v>
+      </c>
+      <c r="E132" s="136"/>
+      <c r="F132" s="135"/>
+      <c r="G132" s="135" t="s">
+        <v>9</v>
+      </c>
+      <c r="H132" s="137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="37"/>
+      <c r="C133" s="138"/>
+      <c r="D133" s="127"/>
+      <c r="E133" s="128">
+        <v>2</v>
+      </c>
+      <c r="F133" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="G133" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" s="35"/>
+    </row>
+    <row r="134" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="37"/>
+      <c r="C134" s="88"/>
+      <c r="D134" s="89"/>
+      <c r="E134" s="90">
+        <v>3</v>
+      </c>
+      <c r="F134" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="G134" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" s="91"/>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="37"/>
+      <c r="C135" s="156">
+        <v>4</v>
+      </c>
+      <c r="D135" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="E135" s="158"/>
+      <c r="F135" s="157"/>
+      <c r="G135" s="157" t="s">
+        <v>9</v>
+      </c>
+      <c r="H135" s="58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="37"/>
+      <c r="C136" s="59"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="23">
+        <v>5</v>
+      </c>
+      <c r="F136" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G136" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" s="32"/>
+    </row>
+    <row r="137" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="139"/>
+      <c r="C137" s="60"/>
+      <c r="D137" s="61"/>
+      <c r="E137" s="62"/>
+      <c r="F137" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G137" s="61"/>
+      <c r="H137" s="64"/>
+    </row>
+    <row r="138" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="7"/>
+    </row>
+    <row r="141" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="7"/>
+    </row>
+    <row r="142" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="10"/>
+    </row>
+    <row r="143" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="131"/>
+      <c r="D143" s="132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="132"/>
+      <c r="F143" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="G143" s="132" t="s">
+        <v>7</v>
+      </c>
+      <c r="H143" s="133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="108"/>
+      <c r="C144" s="134">
+        <v>1</v>
+      </c>
+      <c r="D144" s="135" t="s">
+        <v>116</v>
+      </c>
+      <c r="E144" s="136"/>
+      <c r="F144" s="135"/>
+      <c r="G144" s="135" t="s">
+        <v>9</v>
+      </c>
+      <c r="H144" s="137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B145" s="108"/>
+      <c r="C145" s="138"/>
+      <c r="D145" s="127"/>
+      <c r="E145" s="128">
+        <v>2</v>
+      </c>
+      <c r="F145" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="G145" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" s="35"/>
+    </row>
+    <row r="146" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="108"/>
+      <c r="C146" s="123"/>
+      <c r="D146" s="124"/>
+      <c r="E146" s="125">
+        <v>3</v>
+      </c>
+      <c r="F146" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="G146" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" s="91"/>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B147" s="108"/>
+      <c r="C147" s="48">
+        <v>4</v>
+      </c>
+      <c r="D147" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E147" s="50"/>
+      <c r="F147" s="49"/>
+      <c r="G147" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" s="51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="108"/>
+      <c r="C148" s="42"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="13">
+        <v>5</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148" s="31"/>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="108"/>
+      <c r="C149" s="42"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="17">
+        <v>6</v>
+      </c>
+      <c r="F149" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" s="31"/>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="108"/>
+      <c r="C150" s="42"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="17">
+        <v>7</v>
+      </c>
+      <c r="F150" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" s="31"/>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="108"/>
+      <c r="C151" s="42"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="17">
+        <v>8</v>
+      </c>
+      <c r="F151" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="G151" s="14"/>
+      <c r="H151" s="31"/>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="108"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="17">
+        <v>9</v>
+      </c>
+      <c r="F152" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G152" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" s="31"/>
+    </row>
+    <row r="153" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="109"/>
+      <c r="C153" s="52"/>
+      <c r="D153" s="53"/>
+      <c r="E153" s="54">
+        <v>10</v>
+      </c>
+      <c r="F153" s="160" t="s">
+        <v>32</v>
+      </c>
+      <c r="G153" s="56"/>
+      <c r="H153" s="57"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="E154" s="105"/>
+      <c r="F154" s="106"/>
+      <c r="G154" s="104"/>
+      <c r="H154" s="119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B155" s="108"/>
+      <c r="C155" s="65"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F155" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="G155" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" s="120"/>
+    </row>
+    <row r="156" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="109"/>
+      <c r="C156" s="67"/>
+      <c r="D156" s="68"/>
+      <c r="E156" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G156" s="68"/>
+      <c r="H156" s="121"/>
+    </row>
+    <row r="157" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="4"/>
+    </row>
+    <row r="159" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="7"/>
+    </row>
+    <row r="160" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="7"/>
+    </row>
+    <row r="161" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="8"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="10"/>
+    </row>
+    <row r="162" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="131"/>
+      <c r="D162" s="132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" s="132"/>
+      <c r="F162" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="132" t="s">
+        <v>7</v>
+      </c>
+      <c r="H162" s="133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="37"/>
+      <c r="C163" s="134">
+        <v>1</v>
+      </c>
+      <c r="D163" s="135" t="s">
+        <v>126</v>
+      </c>
+      <c r="E163" s="136"/>
+      <c r="F163" s="135"/>
+      <c r="G163" s="135" t="s">
+        <v>9</v>
+      </c>
+      <c r="H163" s="137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="37"/>
+      <c r="C164" s="138"/>
+      <c r="D164" s="127"/>
+      <c r="E164" s="128">
+        <v>2</v>
+      </c>
+      <c r="F164" s="129" t="s">
+        <v>127</v>
+      </c>
+      <c r="G164" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="H164" s="35"/>
+    </row>
+    <row r="165" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="37"/>
+      <c r="C165" s="88"/>
+      <c r="D165" s="89"/>
+      <c r="E165" s="90">
+        <v>3</v>
+      </c>
+      <c r="F165" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="G165" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H165" s="91"/>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="37"/>
+      <c r="C166" s="156">
+        <v>4</v>
+      </c>
+      <c r="D166" s="157" t="s">
+        <v>130</v>
+      </c>
+      <c r="E166" s="158"/>
+      <c r="F166" s="157"/>
+      <c r="G166" s="157" t="s">
+        <v>9</v>
+      </c>
+      <c r="H166" s="58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="37"/>
+      <c r="C167" s="59"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="23">
+        <v>5</v>
+      </c>
+      <c r="F167" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G167" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" s="32"/>
+    </row>
+    <row r="168" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="139"/>
+      <c r="C168" s="60"/>
+      <c r="D168" s="61"/>
+      <c r="E168" s="62"/>
+      <c r="F168" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G168" s="61"/>
+      <c r="H168" s="64"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F173" s="140"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="117">
+    <mergeCell ref="B162:B168"/>
+    <mergeCell ref="H163:H165"/>
+    <mergeCell ref="H166:H168"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="C158:F158"/>
+    <mergeCell ref="C159:F159"/>
+    <mergeCell ref="C160:F160"/>
+    <mergeCell ref="C161:F161"/>
+    <mergeCell ref="H135:H137"/>
+    <mergeCell ref="C139:F139"/>
+    <mergeCell ref="C140:F140"/>
+    <mergeCell ref="C141:F141"/>
+    <mergeCell ref="C142:F142"/>
+    <mergeCell ref="B143:B153"/>
+    <mergeCell ref="H144:H146"/>
+    <mergeCell ref="H147:H153"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="B131:B137"/>
+    <mergeCell ref="H132:H134"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="H123:H125"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="B112:B122"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="H116:H122"/>
     <mergeCell ref="B103:B106"/>
     <mergeCell ref="H104:H106"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="C110:F110"/>
     <mergeCell ref="H94:H97"/>
     <mergeCell ref="C99:F99"/>
     <mergeCell ref="C100:F100"/>

--- a/Diagramas de UC e Especificações Textuais/4-Especificação do UC do Gestor de Exercícios.xlsx
+++ b/Diagramas de UC e Especificações Textuais/4-Especificação do UC do Gestor de Exercícios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="138">
   <si>
     <t>Nome</t>
   </si>
@@ -313,9 +313,6 @@
     <t>Envia Formulário de exercício preenchido</t>
   </si>
   <si>
-    <t>Valída formulário de exercício</t>
-  </si>
-  <si>
     <t>Insere exercício no sistema</t>
   </si>
   <si>
@@ -367,15 +364,9 @@
     <t>Seleciona inserir Ficha</t>
   </si>
   <si>
-    <t>Prepara formulário de inserção de Ficha Colectiva</t>
-  </si>
-  <si>
     <t>Envia Formulário de Ficha preenchido</t>
   </si>
   <si>
-    <t>Valída formulário de Ficha</t>
-  </si>
-  <si>
     <t>Insere Ficha no sistema</t>
   </si>
   <si>
@@ -407,6 +398,36 @@
   </si>
   <si>
     <t>Seleciona turma</t>
+  </si>
+  <si>
+    <t>Apresenta Nota final</t>
+  </si>
+  <si>
+    <t>Apresenta Nota Final</t>
+  </si>
+  <si>
+    <t>Valida formulário de exercício</t>
+  </si>
+  <si>
+    <t>Prepara formulário de inserção de Ficha Coletiva</t>
+  </si>
+  <si>
+    <t>Valida formulário de Ficha</t>
+  </si>
+  <si>
+    <t>Calcula nota.</t>
+  </si>
+  <si>
+    <t>Calcula nota</t>
+  </si>
+  <si>
+    <t>(Se Actor for professor)</t>
+  </si>
+  <si>
+    <t>Alternativa 2</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Extended by&gt;&gt; Seleciona Aluno</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1098,6 +1119,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1308,6 +1332,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1619,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J173"/>
+  <dimension ref="B1:J183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F173" sqref="F173"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1734,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="37"/>
-      <c r="C7" s="87">
+      <c r="C7" s="88">
         <v>1</v>
       </c>
       <c r="D7" s="34" t="s">
@@ -1717,7 +1751,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="37"/>
-      <c r="C8" s="87"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="34"/>
       <c r="E8" s="33">
         <v>2</v>
@@ -1732,33 +1766,33 @@
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="37"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90">
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="91">
         <v>3</v>
       </c>
-      <c r="F9" s="89" t="s">
+      <c r="F9" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="89" t="s">
+      <c r="G9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="91"/>
+      <c r="H9" s="92"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
-      <c r="C10" s="48">
+      <c r="C10" s="49">
         <v>4</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49" t="s">
+      <c r="E10" s="51"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="52" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1779,2195 +1813,2350 @@
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="37"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54">
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55">
         <v>6</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="57"/>
+      <c r="H12" s="58"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
-      <c r="C13" s="71">
+      <c r="C13" s="72">
         <v>7</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75" t="s">
+      <c r="E13" s="74"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="77" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79">
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80">
         <v>8</v>
       </c>
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="80"/>
+      <c r="H14" s="81"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79">
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80">
         <v>9</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="78" t="s">
+      <c r="G15" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="80"/>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="81"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84">
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80">
         <v>10</v>
       </c>
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="81"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="37"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80">
+        <v>11</v>
+      </c>
+      <c r="F17" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="37"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85">
+        <v>12</v>
+      </c>
+      <c r="F18" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="86"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
+      <c r="G18" s="84"/>
+      <c r="H18" s="87"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="105" t="s">
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="106" t="s">
+      <c r="F19" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="104"/>
-      <c r="H17" s="25" t="s">
+      <c r="G19" s="105"/>
+      <c r="H19" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="44" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="39"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F20" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G20" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="40"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28" t="s">
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="39"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="40"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="30"/>
-    </row>
-    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-    </row>
+      <c r="G22" s="27"/>
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="11" t="s">
+      <c r="C28" s="41"/>
+      <c r="D28" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11" t="s">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H28" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="37"/>
-      <c r="C27" s="87">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="37"/>
+      <c r="C29" s="88">
         <v>1</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D29" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34" t="s">
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H29" s="35" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="37"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="33">
-        <v>2</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="35"/>
-    </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="37"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="90">
-        <v>3</v>
-      </c>
-      <c r="F29" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="91"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
-      <c r="C30" s="48">
+      <c r="C30" s="88"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="33">
+        <v>2</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="35"/>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="37"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="91">
+        <v>3</v>
+      </c>
+      <c r="F31" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="92"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="37"/>
+      <c r="C32" s="49">
         <v>4</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D32" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49" t="s">
+      <c r="E32" s="51"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="51" t="s">
+      <c r="H32" s="52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="13">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="37"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="13">
         <v>5</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F33" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="31"/>
-    </row>
-    <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="37"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54">
+      <c r="H33" s="31"/>
+    </row>
+    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="37"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55">
         <v>6</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F34" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G34" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="57"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="37"/>
-      <c r="C33" s="71">
+      <c r="H34" s="58"/>
+      <c r="J34" s="141"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="37"/>
+      <c r="C35" s="72">
         <v>7</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D35" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="73"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="75" t="s">
+      <c r="E35" s="74"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="76" t="s">
+      <c r="H35" s="77" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="37"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="79">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="37"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="80">
         <v>8</v>
       </c>
-      <c r="F34" s="78" t="s">
+      <c r="F36" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="78" t="s">
+      <c r="G36" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="80"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="37"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79">
+      <c r="H36" s="81"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="37"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="80">
         <v>9</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="F37" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="78" t="s">
+      <c r="G37" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="80"/>
-    </row>
-    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="37"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84">
+      <c r="H37" s="81"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="37"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="80">
         <v>10</v>
       </c>
-      <c r="F36" s="85" t="s">
+      <c r="F38" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="81"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="37"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="80">
+        <v>11</v>
+      </c>
+      <c r="F39" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="81"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="37"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="85">
+        <v>12</v>
+      </c>
+      <c r="F40" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="83"/>
-      <c r="H36" s="86"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="38" t="s">
+      <c r="G40" s="84"/>
+      <c r="H40" s="87"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="103"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="105" t="s">
+      <c r="C41" s="104"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="106" t="s">
+      <c r="F41" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="104"/>
-      <c r="H37" s="25" t="s">
+      <c r="G41" s="105"/>
+      <c r="H41" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="39"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="44" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="39"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F42" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="45" t="s">
+      <c r="G42" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="26"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="39"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="26"/>
-    </row>
-    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="40"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28" t="s">
+      <c r="H42" s="26"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="39"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="141"/>
+    </row>
+    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="40"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F44" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="30"/>
-    </row>
-    <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
+      <c r="G44" s="27"/>
+      <c r="H44" s="30"/>
+    </row>
+    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="107" t="s">
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="11" t="s">
+      <c r="C50" s="41"/>
+      <c r="D50" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11" t="s">
+      <c r="E50" s="11"/>
+      <c r="F50" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G50" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H50" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="108"/>
-      <c r="C47" s="87">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="109"/>
+      <c r="C51" s="88">
         <v>1</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D51" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34" t="s">
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="35" t="s">
+      <c r="H51" s="35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="108"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="100">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="109"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="101">
         <v>2</v>
       </c>
-      <c r="F48" s="98" t="s">
+      <c r="F52" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="G48" s="96" t="s">
+      <c r="G52" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="35"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="108"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="35"/>
-    </row>
-    <row r="50" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="108"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="90">
+      <c r="H52" s="35"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="109"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="35"/>
+    </row>
+    <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="109"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="91">
         <v>3</v>
       </c>
-      <c r="F50" s="89" t="s">
+      <c r="F54" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="G50" s="89" t="s">
+      <c r="G54" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="91"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="108"/>
-      <c r="C51" s="48">
+      <c r="H54" s="92"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="109"/>
+      <c r="C55" s="49">
         <v>4</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D55" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49" t="s">
+      <c r="E55" s="51"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="51" t="s">
+      <c r="H55" s="52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="108"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="13">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="109"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="13">
         <v>5</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F56" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G56" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="31"/>
-    </row>
-    <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="108"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="54">
+      <c r="H56" s="31"/>
+    </row>
+    <row r="57" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="109"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="55">
         <v>6</v>
       </c>
-      <c r="F53" s="55" t="s">
+      <c r="F57" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="56" t="s">
+      <c r="G57" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="57"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="108"/>
-      <c r="C54" s="71">
+      <c r="H57" s="58"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="109"/>
+      <c r="C58" s="72">
         <v>7</v>
       </c>
-      <c r="D54" s="72" t="s">
+      <c r="D58" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="73"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="75" t="s">
+      <c r="E58" s="74"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="H54" s="76" t="s">
+      <c r="H58" s="77" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="109"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="112"/>
-      <c r="F55" s="113" t="s">
+    <row r="59" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="110"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="G55" s="111"/>
-      <c r="H55" s="114"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="102"/>
-      <c r="C56" s="103" t="s">
+      <c r="G59" s="112"/>
+      <c r="H59" s="115"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="103"/>
+      <c r="C60" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="106" t="s">
+      <c r="D60" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="E56" s="105"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="119" t="s">
+      <c r="E60" s="106"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="120" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="102" t="s">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="15" t="s">
+      <c r="C61" s="66"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="66" t="s">
+      <c r="F61" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G61" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="120"/>
-    </row>
-    <row r="58" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="102"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="69" t="s">
+      <c r="H61" s="121"/>
+    </row>
+    <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="103"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="164"/>
+      <c r="E62" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="70" t="s">
+      <c r="F62" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="G58" s="68"/>
-      <c r="H58" s="121"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="38" t="s">
+      <c r="G62" s="164"/>
+      <c r="H62" s="121"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="167"/>
+      <c r="C63" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="106"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="103" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="66"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="121"/>
+    </row>
+    <row r="65" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="168"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="G65" s="69"/>
+      <c r="H65" s="122"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="115"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="117" t="s">
+      <c r="C66" s="104"/>
+      <c r="D66" s="105"/>
+      <c r="E66" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="F59" s="118" t="s">
+      <c r="F66" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="G59" s="116"/>
-      <c r="H59" s="25" t="s">
+      <c r="G66" s="105"/>
+      <c r="H66" s="48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="39"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="44" t="s">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="39"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F67" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="G60" s="122" t="s">
+      <c r="G67" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="39"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="40"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="28" t="s">
+      <c r="H67" s="26"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="39"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="123"/>
+      <c r="H68" s="26"/>
+    </row>
+    <row r="69" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="40"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="29" t="s">
+      <c r="F69" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G62" s="27"/>
-      <c r="H62" s="30"/>
-    </row>
-    <row r="63" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
+      <c r="G69" s="27"/>
+      <c r="H69" s="30"/>
+    </row>
+    <row r="70" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="1" t="s">
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="1" t="s">
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="107" t="s">
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="41"/>
-      <c r="D68" s="11" t="s">
+      <c r="C75" s="41"/>
+      <c r="D75" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11" t="s">
+      <c r="E75" s="11"/>
+      <c r="F75" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="G75" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="12" t="s">
+      <c r="H75" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="108"/>
-      <c r="C69" s="87">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="109"/>
+      <c r="C76" s="88">
         <v>1</v>
       </c>
-      <c r="D69" s="34" t="s">
+      <c r="D76" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E69" s="33"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34" t="s">
+      <c r="E76" s="33"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="35" t="s">
+      <c r="H76" s="35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="108"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="100">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="109"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="101">
         <v>2</v>
       </c>
-      <c r="F70" s="98" t="s">
+      <c r="F77" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="G70" s="96" t="s">
+      <c r="G77" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="35"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="108"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="93"/>
-      <c r="E71" s="101"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="97"/>
-      <c r="H71" s="35"/>
-    </row>
-    <row r="72" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="108"/>
-      <c r="C72" s="88"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="90">
+      <c r="H77" s="35"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="109"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="94"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="100"/>
+      <c r="G78" s="98"/>
+      <c r="H78" s="35"/>
+    </row>
+    <row r="79" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="109"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="91">
         <v>3</v>
       </c>
-      <c r="F72" s="89" t="s">
+      <c r="F79" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G72" s="89" t="s">
+      <c r="G79" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H72" s="91"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="108"/>
-      <c r="C73" s="48">
+      <c r="H79" s="92"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="109"/>
+      <c r="C80" s="49">
         <v>4</v>
       </c>
-      <c r="D73" s="49" t="s">
+      <c r="D80" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E73" s="50"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49" t="s">
+      <c r="E80" s="51"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H73" s="51" t="s">
+      <c r="H80" s="52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="108"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="13">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="109"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="13">
         <v>5</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="F81" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="G81" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="31"/>
-    </row>
-    <row r="75" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="108"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="54">
+      <c r="H81" s="31"/>
+    </row>
+    <row r="82" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="109"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="55">
         <v>6</v>
       </c>
-      <c r="F75" s="55" t="s">
+      <c r="F82" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="G75" s="56" t="s">
+      <c r="G82" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H75" s="57"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="108"/>
-      <c r="C76" s="71">
+      <c r="H82" s="58"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="109"/>
+      <c r="C83" s="72">
         <v>7</v>
       </c>
-      <c r="D76" s="72" t="s">
+      <c r="D83" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="E76" s="73"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="75" t="s">
+      <c r="E83" s="74"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="H76" s="76" t="s">
+      <c r="H83" s="77" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="109"/>
-      <c r="C77" s="110"/>
-      <c r="D77" s="111"/>
-      <c r="E77" s="112"/>
-      <c r="F77" s="113" t="s">
+    <row r="84" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="110"/>
+      <c r="C84" s="111"/>
+      <c r="D84" s="112"/>
+      <c r="E84" s="113"/>
+      <c r="F84" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="G77" s="111"/>
-      <c r="H77" s="114"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="102"/>
-      <c r="C78" s="103" t="s">
+      <c r="G84" s="112"/>
+      <c r="H84" s="115"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="103"/>
+      <c r="C85" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D78" s="106" t="s">
+      <c r="D85" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="E78" s="105"/>
-      <c r="F78" s="106"/>
-      <c r="G78" s="104"/>
-      <c r="H78" s="119" t="s">
+      <c r="E85" s="106"/>
+      <c r="F85" s="107"/>
+      <c r="G85" s="105"/>
+      <c r="H85" s="120" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="102" t="s">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="65"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="15" t="s">
+      <c r="C86" s="66"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F79" s="66" t="s">
+      <c r="F86" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="G86" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H79" s="120"/>
-    </row>
-    <row r="80" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="102"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="69" t="s">
+      <c r="H86" s="121"/>
+      <c r="J86" s="141"/>
+    </row>
+    <row r="87" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="103"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="F80" s="70" t="s">
+      <c r="F87" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="G80" s="68"/>
-      <c r="H80" s="121"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="38" t="s">
+      <c r="G87" s="69"/>
+      <c r="H87" s="122"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="167"/>
+      <c r="C88" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="106"/>
+      <c r="F88" s="107"/>
+      <c r="G88" s="105"/>
+      <c r="H88" s="120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="103" t="s">
+        <v>136</v>
+      </c>
+      <c r="C89" s="66"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" s="121"/>
+    </row>
+    <row r="90" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="168"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="F90" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="G90" s="69"/>
+      <c r="H90" s="122"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="115"/>
-      <c r="D81" s="116"/>
-      <c r="E81" s="117" t="s">
+      <c r="C91" s="116"/>
+      <c r="D91" s="117"/>
+      <c r="E91" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="118" t="s">
+      <c r="F91" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="G81" s="116"/>
-      <c r="H81" s="25" t="s">
+      <c r="G91" s="117"/>
+      <c r="H91" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="39"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="44" t="s">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="39"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F82" s="46" t="s">
+      <c r="F92" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="G82" s="122" t="s">
+      <c r="G92" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="H82" s="26"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="39"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="122"/>
-      <c r="H83" s="26"/>
-    </row>
-    <row r="84" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="40"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="28" t="s">
+      <c r="H92" s="26"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="39"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="123"/>
+      <c r="H93" s="26"/>
+    </row>
+    <row r="94" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="40"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="F94" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G84" s="27"/>
-      <c r="H84" s="30"/>
-    </row>
-    <row r="85" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="1" t="s">
+      <c r="G94" s="27"/>
+      <c r="H94" s="30"/>
+    </row>
+    <row r="95" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="4"/>
-    </row>
-    <row r="87" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="1" t="s">
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C97" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="1" t="s">
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="7"/>
+    </row>
+    <row r="98" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C98" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="10"/>
-    </row>
-    <row r="90" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="131"/>
-      <c r="D90" s="132" t="s">
-        <v>5</v>
-      </c>
-      <c r="E90" s="132"/>
-      <c r="F90" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="132" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" s="133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="37"/>
-      <c r="C91" s="134">
-        <v>1</v>
-      </c>
-      <c r="D91" s="135" t="s">
-        <v>73</v>
-      </c>
-      <c r="E91" s="136"/>
-      <c r="F91" s="135"/>
-      <c r="G91" s="135" t="s">
-        <v>9</v>
-      </c>
-      <c r="H91" s="137" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="37"/>
-      <c r="C92" s="138"/>
-      <c r="D92" s="127"/>
-      <c r="E92" s="128">
-        <v>2</v>
-      </c>
-      <c r="F92" s="129" t="s">
-        <v>87</v>
-      </c>
-      <c r="G92" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="H92" s="35"/>
-    </row>
-    <row r="93" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="37"/>
-      <c r="C93" s="88"/>
-      <c r="D93" s="89"/>
-      <c r="E93" s="90">
-        <v>3</v>
-      </c>
-      <c r="F93" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="G93" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="91"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="37"/>
-      <c r="C94" s="156">
-        <v>4</v>
-      </c>
-      <c r="D94" s="157" t="s">
-        <v>84</v>
-      </c>
-      <c r="E94" s="158"/>
-      <c r="F94" s="157"/>
-      <c r="G94" s="157" t="s">
-        <v>9</v>
-      </c>
-      <c r="H94" s="58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="37"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="23">
-        <v>5</v>
-      </c>
-      <c r="F95" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G95" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" s="32"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="37"/>
-      <c r="C96" s="159"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="20">
-        <v>6</v>
-      </c>
-      <c r="F96" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G96" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="32"/>
-    </row>
-    <row r="97" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="139"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="61"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="G97" s="61"/>
-      <c r="H97" s="64"/>
-    </row>
-    <row r="98" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="7"/>
+    </row>
     <row r="99" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="4"/>
-    </row>
-    <row r="100" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="132"/>
+      <c r="D100" s="133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="133"/>
+      <c r="F100" s="133" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="133" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="37"/>
+      <c r="C101" s="135">
         <v>1</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="7"/>
-    </row>
-    <row r="101" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="1" t="s">
+      <c r="D101" s="136" t="s">
+        <v>73</v>
+      </c>
+      <c r="E101" s="137"/>
+      <c r="F101" s="136"/>
+      <c r="G101" s="136" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="37"/>
+      <c r="C102" s="139"/>
+      <c r="D102" s="128"/>
+      <c r="E102" s="129">
         <v>2</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="7"/>
-      <c r="J101" s="140"/>
-    </row>
-    <row r="102" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="1" t="s">
+      <c r="F102" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="G102" s="131" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="35"/>
+    </row>
+    <row r="103" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="37"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="90"/>
+      <c r="E103" s="91">
         <v>3</v>
       </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="10"/>
-    </row>
-    <row r="103" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="C103" s="131"/>
-      <c r="D103" s="132" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" s="132"/>
-      <c r="F103" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="G103" s="132" t="s">
-        <v>7</v>
-      </c>
-      <c r="H103" s="133" t="s">
-        <v>8</v>
-      </c>
+      <c r="F103" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="G103" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="92"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="37"/>
-      <c r="C104" s="141">
-        <v>0</v>
-      </c>
-      <c r="D104" s="155" t="s">
-        <v>91</v>
-      </c>
-      <c r="E104" s="143"/>
-      <c r="F104" s="142"/>
-      <c r="G104" s="142" t="s">
+      <c r="C104" s="157">
+        <v>4</v>
+      </c>
+      <c r="D104" s="158" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="159"/>
+      <c r="F104" s="158"/>
+      <c r="G104" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="H104" s="144" t="s">
-        <v>10</v>
+      <c r="H104" s="59" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="37"/>
-      <c r="C105" s="145"/>
-      <c r="D105" s="146"/>
-      <c r="E105" s="147">
-        <v>1</v>
-      </c>
-      <c r="F105" s="148" t="s">
-        <v>92</v>
-      </c>
-      <c r="G105" s="149" t="s">
+      <c r="C105" s="60"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="23">
+        <v>5</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G105" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H105" s="150"/>
-    </row>
-    <row r="106" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="139"/>
-      <c r="C106" s="151"/>
-      <c r="D106" s="152"/>
-      <c r="E106" s="153">
-        <v>2</v>
-      </c>
-      <c r="F106" s="152" t="s">
-        <v>93</v>
-      </c>
-      <c r="G106" s="152" t="s">
+      <c r="H105" s="32"/>
+      <c r="J105" s="141"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="37"/>
+      <c r="C106" s="160"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="20">
+        <v>6</v>
+      </c>
+      <c r="F106" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G106" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H106" s="154"/>
-    </row>
-    <row r="107" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="4"/>
-    </row>
+      <c r="H106" s="32"/>
+    </row>
+    <row r="107" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="140"/>
+      <c r="C107" s="61"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G107" s="62"/>
+      <c r="H107" s="65"/>
+    </row>
+    <row r="108" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="4"/>
     </row>
     <row r="110" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="7"/>
     </row>
     <row r="111" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C112" s="8"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="132"/>
+      <c r="D113" s="133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="133"/>
+      <c r="F113" s="133" t="s">
+        <v>6</v>
+      </c>
+      <c r="G113" s="133" t="s">
+        <v>7</v>
+      </c>
+      <c r="H113" s="134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="37"/>
+      <c r="C114" s="142">
+        <v>0</v>
+      </c>
+      <c r="D114" s="156" t="s">
+        <v>91</v>
+      </c>
+      <c r="E114" s="144"/>
+      <c r="F114" s="143"/>
+      <c r="G114" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" s="145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="37"/>
+      <c r="C115" s="146"/>
+      <c r="D115" s="147"/>
+      <c r="E115" s="148">
+        <v>1</v>
+      </c>
+      <c r="F115" s="149" t="s">
+        <v>92</v>
+      </c>
+      <c r="G115" s="150" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="151"/>
+    </row>
+    <row r="116" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="140"/>
+      <c r="C116" s="152"/>
+      <c r="D116" s="153"/>
+      <c r="E116" s="154">
+        <v>2</v>
+      </c>
+      <c r="F116" s="153" t="s">
+        <v>93</v>
+      </c>
+      <c r="G116" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="155"/>
+    </row>
+    <row r="117" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="7"/>
+    </row>
+    <row r="120" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="7"/>
+    </row>
+    <row r="121" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="10"/>
-    </row>
-    <row r="112" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="107" t="s">
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="10"/>
+    </row>
+    <row r="122" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C112" s="131"/>
-      <c r="D112" s="132" t="s">
+      <c r="C122" s="132"/>
+      <c r="D122" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="E112" s="132"/>
-      <c r="F112" s="132" t="s">
+      <c r="E122" s="133"/>
+      <c r="F122" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="G112" s="132" t="s">
+      <c r="G122" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="H112" s="133" t="s">
+      <c r="H122" s="134" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="108"/>
-      <c r="C113" s="134">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="109"/>
+      <c r="C123" s="135">
         <v>1</v>
       </c>
-      <c r="D113" s="135" t="s">
-        <v>104</v>
-      </c>
-      <c r="E113" s="136"/>
-      <c r="F113" s="135"/>
-      <c r="G113" s="135" t="s">
+      <c r="D123" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="E123" s="137"/>
+      <c r="F123" s="136"/>
+      <c r="G123" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="H113" s="137" t="s">
+      <c r="H123" s="138" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="108"/>
-      <c r="C114" s="138"/>
-      <c r="D114" s="127"/>
-      <c r="E114" s="128">
+    <row r="124" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B124" s="109"/>
+      <c r="C124" s="139"/>
+      <c r="D124" s="128"/>
+      <c r="E124" s="129">
         <v>2</v>
       </c>
-      <c r="F114" s="129" t="s">
+      <c r="F124" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="G114" s="130" t="s">
+      <c r="G124" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="H114" s="35"/>
-    </row>
-    <row r="115" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="108"/>
-      <c r="C115" s="123"/>
-      <c r="D115" s="124"/>
-      <c r="E115" s="125">
-        <v>3</v>
-      </c>
-      <c r="F115" s="126" t="s">
-        <v>105</v>
-      </c>
-      <c r="G115" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" s="91"/>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="108"/>
-      <c r="C116" s="48">
-        <v>4</v>
-      </c>
-      <c r="D116" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="E116" s="50"/>
-      <c r="F116" s="49"/>
-      <c r="G116" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="108"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="13">
-        <v>5</v>
-      </c>
-      <c r="F117" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G117" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" s="31"/>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="108"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="17">
-        <v>6</v>
-      </c>
-      <c r="F118" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H118" s="31"/>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="108"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="17">
-        <v>7</v>
-      </c>
-      <c r="F119" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G119" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" s="31"/>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="108"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="17">
-        <v>8</v>
-      </c>
-      <c r="F120" s="161" t="s">
-        <v>102</v>
-      </c>
-      <c r="G120" s="14"/>
-      <c r="H120" s="31"/>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="108"/>
-      <c r="C121" s="42"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="17">
-        <v>9</v>
-      </c>
-      <c r="F121" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G121" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H121" s="31"/>
-    </row>
-    <row r="122" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="109"/>
-      <c r="C122" s="52"/>
-      <c r="D122" s="53"/>
-      <c r="E122" s="54">
-        <v>10</v>
-      </c>
-      <c r="F122" s="160" t="s">
-        <v>32</v>
-      </c>
-      <c r="G122" s="56"/>
-      <c r="H122" s="57"/>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="103" t="s">
-        <v>16</v>
-      </c>
-      <c r="D123" s="106" t="s">
-        <v>106</v>
-      </c>
-      <c r="E123" s="105"/>
-      <c r="F123" s="106"/>
-      <c r="G123" s="104"/>
-      <c r="H123" s="119" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="108"/>
-      <c r="C124" s="65"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="G124" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H124" s="120"/>
+      <c r="H124" s="35"/>
     </row>
     <row r="125" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="109"/>
-      <c r="C125" s="67"/>
-      <c r="D125" s="68"/>
-      <c r="E125" s="69" t="s">
+      <c r="C125" s="124"/>
+      <c r="D125" s="125"/>
+      <c r="E125" s="126">
+        <v>3</v>
+      </c>
+      <c r="F125" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="G125" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" s="92"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="109"/>
+      <c r="C126" s="49">
+        <v>4</v>
+      </c>
+      <c r="D126" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E126" s="51"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="109"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="13">
+        <v>5</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="31"/>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="109"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="17">
+        <v>6</v>
+      </c>
+      <c r="F128" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="31"/>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="109"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="17">
+        <v>7</v>
+      </c>
+      <c r="F129" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" s="31"/>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="109"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="17">
+        <v>8</v>
+      </c>
+      <c r="F130" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="G130" s="14"/>
+      <c r="H130" s="31"/>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="109"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="17">
+        <v>9</v>
+      </c>
+      <c r="F131" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" s="31"/>
+    </row>
+    <row r="132" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="110"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="55">
+        <v>10</v>
+      </c>
+      <c r="F132" s="161" t="s">
+        <v>32</v>
+      </c>
+      <c r="G132" s="57"/>
+      <c r="H132" s="58"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="E133" s="106"/>
+      <c r="F133" s="107"/>
+      <c r="G133" s="105"/>
+      <c r="H133" s="120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="109"/>
+      <c r="C134" s="66"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" s="121"/>
+    </row>
+    <row r="135" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="110"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F125" s="70" t="s">
+      <c r="F135" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G125" s="68"/>
-      <c r="H125" s="121"/>
-    </row>
-    <row r="126" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="1" t="s">
+      <c r="G135" s="69"/>
+      <c r="H135" s="122"/>
+    </row>
+    <row r="136" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C137" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="4"/>
-    </row>
-    <row r="128" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="7"/>
-    </row>
-    <row r="129" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="7"/>
-    </row>
-    <row r="130" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="10"/>
-    </row>
-    <row r="131" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131" s="131"/>
-      <c r="D131" s="132" t="s">
-        <v>5</v>
-      </c>
-      <c r="E131" s="132"/>
-      <c r="F131" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="G131" s="132" t="s">
-        <v>7</v>
-      </c>
-      <c r="H131" s="133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="37"/>
-      <c r="C132" s="134">
-        <v>1</v>
-      </c>
-      <c r="D132" s="135" t="s">
-        <v>110</v>
-      </c>
-      <c r="E132" s="136"/>
-      <c r="F132" s="135"/>
-      <c r="G132" s="135" t="s">
-        <v>9</v>
-      </c>
-      <c r="H132" s="137" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="37"/>
-      <c r="C133" s="138"/>
-      <c r="D133" s="127"/>
-      <c r="E133" s="128">
-        <v>2</v>
-      </c>
-      <c r="F133" s="129" t="s">
-        <v>111</v>
-      </c>
-      <c r="G133" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="H133" s="35"/>
-    </row>
-    <row r="134" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="37"/>
-      <c r="C134" s="88"/>
-      <c r="D134" s="89"/>
-      <c r="E134" s="90">
-        <v>3</v>
-      </c>
-      <c r="F134" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="G134" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" s="91"/>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="37"/>
-      <c r="C135" s="156">
-        <v>4</v>
-      </c>
-      <c r="D135" s="157" t="s">
-        <v>112</v>
-      </c>
-      <c r="E135" s="158"/>
-      <c r="F135" s="157"/>
-      <c r="G135" s="157" t="s">
-        <v>9</v>
-      </c>
-      <c r="H135" s="58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="37"/>
-      <c r="C136" s="59"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="23">
-        <v>5</v>
-      </c>
-      <c r="F136" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G136" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H136" s="32"/>
-    </row>
-    <row r="137" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="139"/>
-      <c r="C137" s="60"/>
-      <c r="D137" s="61"/>
-      <c r="E137" s="62"/>
-      <c r="F137" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="G137" s="61"/>
-      <c r="H137" s="64"/>
-    </row>
-    <row r="138" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="7"/>
+    </row>
     <row r="139" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="7"/>
     </row>
     <row r="140" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="8"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="10"/>
+    </row>
+    <row r="141" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="132"/>
+      <c r="D141" s="133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="133"/>
+      <c r="F141" s="133" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" s="133" t="s">
+        <v>7</v>
+      </c>
+      <c r="H141" s="134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="37"/>
+      <c r="C142" s="135">
         <v>1</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="D142" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="E142" s="137"/>
+      <c r="F142" s="136"/>
+      <c r="G142" s="136" t="s">
+        <v>9</v>
+      </c>
+      <c r="H142" s="138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="37"/>
+      <c r="C143" s="139"/>
+      <c r="D143" s="128"/>
+      <c r="E143" s="129">
+        <v>2</v>
+      </c>
+      <c r="F143" s="130" t="s">
+        <v>110</v>
+      </c>
+      <c r="G143" s="131" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143" s="35"/>
+    </row>
+    <row r="144" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="37"/>
+      <c r="C144" s="89"/>
+      <c r="D144" s="90"/>
+      <c r="E144" s="91">
+        <v>3</v>
+      </c>
+      <c r="F144" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="G144" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" s="92"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="37"/>
+      <c r="C145" s="157">
+        <v>4</v>
+      </c>
+      <c r="D145" s="158" t="s">
+        <v>111</v>
+      </c>
+      <c r="E145" s="159"/>
+      <c r="F145" s="158"/>
+      <c r="G145" s="158" t="s">
+        <v>9</v>
+      </c>
+      <c r="H145" s="59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="37"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="23">
+        <v>5</v>
+      </c>
+      <c r="F146" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G146" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H146" s="32"/>
+    </row>
+    <row r="147" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="140"/>
+      <c r="C147" s="61"/>
+      <c r="D147" s="62"/>
+      <c r="E147" s="63"/>
+      <c r="F147" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G147" s="62"/>
+      <c r="H147" s="65"/>
+    </row>
+    <row r="148" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="149" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="4"/>
+    </row>
+    <row r="150" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="7"/>
+    </row>
+    <row r="151" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="7"/>
+    </row>
+    <row r="152" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="7"/>
-    </row>
-    <row r="141" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="1" t="s">
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="10"/>
+    </row>
+    <row r="153" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="132"/>
+      <c r="D153" s="133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="133"/>
+      <c r="F153" s="133" t="s">
+        <v>6</v>
+      </c>
+      <c r="G153" s="133" t="s">
+        <v>7</v>
+      </c>
+      <c r="H153" s="134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" s="109"/>
+      <c r="C154" s="135">
+        <v>1</v>
+      </c>
+      <c r="D154" s="136" t="s">
+        <v>115</v>
+      </c>
+      <c r="E154" s="137"/>
+      <c r="F154" s="136"/>
+      <c r="G154" s="136" t="s">
+        <v>9</v>
+      </c>
+      <c r="H154" s="138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B155" s="109"/>
+      <c r="C155" s="139"/>
+      <c r="D155" s="128"/>
+      <c r="E155" s="129">
         <v>2</v>
       </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="7"/>
-    </row>
-    <row r="142" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="10"/>
-    </row>
-    <row r="143" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="C143" s="131"/>
-      <c r="D143" s="132" t="s">
-        <v>5</v>
-      </c>
-      <c r="E143" s="132"/>
-      <c r="F143" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="G143" s="132" t="s">
-        <v>7</v>
-      </c>
-      <c r="H143" s="133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="108"/>
-      <c r="C144" s="134">
-        <v>1</v>
-      </c>
-      <c r="D144" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="E144" s="136"/>
-      <c r="F144" s="135"/>
-      <c r="G144" s="135" t="s">
-        <v>9</v>
-      </c>
-      <c r="H144" s="137" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B145" s="108"/>
-      <c r="C145" s="138"/>
-      <c r="D145" s="127"/>
-      <c r="E145" s="128">
-        <v>2</v>
-      </c>
-      <c r="F145" s="129" t="s">
-        <v>117</v>
-      </c>
-      <c r="G145" s="130" t="s">
+      <c r="F155" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="G155" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="H145" s="35"/>
-    </row>
-    <row r="146" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="108"/>
-      <c r="C146" s="123"/>
-      <c r="D146" s="124"/>
-      <c r="E146" s="125">
-        <v>3</v>
-      </c>
-      <c r="F146" s="126" t="s">
-        <v>105</v>
-      </c>
-      <c r="G146" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H146" s="91"/>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="108"/>
-      <c r="C147" s="48">
-        <v>4</v>
-      </c>
-      <c r="D147" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="E147" s="50"/>
-      <c r="F147" s="49"/>
-      <c r="G147" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H147" s="51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="108"/>
-      <c r="C148" s="42"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="13">
-        <v>5</v>
-      </c>
-      <c r="F148" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G148" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H148" s="31"/>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="108"/>
-      <c r="C149" s="42"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="17">
-        <v>6</v>
-      </c>
-      <c r="F149" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G149" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H149" s="31"/>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="108"/>
-      <c r="C150" s="42"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="17">
-        <v>7</v>
-      </c>
-      <c r="F150" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="G150" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H150" s="31"/>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="108"/>
-      <c r="C151" s="42"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="17">
-        <v>8</v>
-      </c>
-      <c r="F151" s="161" t="s">
-        <v>122</v>
-      </c>
-      <c r="G151" s="14"/>
-      <c r="H151" s="31"/>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="108"/>
-      <c r="C152" s="42"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="17">
-        <v>9</v>
-      </c>
-      <c r="F152" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G152" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H152" s="31"/>
-    </row>
-    <row r="153" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="109"/>
-      <c r="C153" s="52"/>
-      <c r="D153" s="53"/>
-      <c r="E153" s="54">
-        <v>10</v>
-      </c>
-      <c r="F153" s="160" t="s">
-        <v>32</v>
-      </c>
-      <c r="G153" s="56"/>
-      <c r="H153" s="57"/>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="C154" s="103" t="s">
-        <v>16</v>
-      </c>
-      <c r="D154" s="106" t="s">
-        <v>106</v>
-      </c>
-      <c r="E154" s="105"/>
-      <c r="F154" s="106"/>
-      <c r="G154" s="104"/>
-      <c r="H154" s="119" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="108"/>
-      <c r="C155" s="65"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F155" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="G155" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H155" s="120"/>
+      <c r="H155" s="35"/>
     </row>
     <row r="156" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B156" s="109"/>
-      <c r="C156" s="67"/>
-      <c r="D156" s="68"/>
-      <c r="E156" s="69" t="s">
+      <c r="C156" s="124"/>
+      <c r="D156" s="125"/>
+      <c r="E156" s="126">
+        <v>3</v>
+      </c>
+      <c r="F156" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="G156" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" s="92"/>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="109"/>
+      <c r="C157" s="49">
+        <v>4</v>
+      </c>
+      <c r="D157" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E157" s="51"/>
+      <c r="F157" s="50"/>
+      <c r="G157" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" s="52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="109"/>
+      <c r="C158" s="42"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="13">
+        <v>5</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G158" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H158" s="31"/>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="109"/>
+      <c r="C159" s="42"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="17">
+        <v>6</v>
+      </c>
+      <c r="F159" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H159" s="31"/>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="109"/>
+      <c r="C160" s="42"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="17">
+        <v>7</v>
+      </c>
+      <c r="F160" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" s="31"/>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="109"/>
+      <c r="C161" s="42"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="17">
+        <v>8</v>
+      </c>
+      <c r="F161" s="162" t="s">
+        <v>119</v>
+      </c>
+      <c r="G161" s="14"/>
+      <c r="H161" s="31"/>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="109"/>
+      <c r="C162" s="42"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="17">
+        <v>9</v>
+      </c>
+      <c r="F162" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H162" s="31"/>
+    </row>
+    <row r="163" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="110"/>
+      <c r="C163" s="53"/>
+      <c r="D163" s="54"/>
+      <c r="E163" s="55">
+        <v>10</v>
+      </c>
+      <c r="F163" s="161" t="s">
+        <v>32</v>
+      </c>
+      <c r="G163" s="57"/>
+      <c r="H163" s="58"/>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="E164" s="106"/>
+      <c r="F164" s="107"/>
+      <c r="G164" s="105"/>
+      <c r="H164" s="120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="109"/>
+      <c r="C165" s="66"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G165" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H165" s="121"/>
+    </row>
+    <row r="166" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="110"/>
+      <c r="C166" s="68"/>
+      <c r="D166" s="69"/>
+      <c r="E166" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F156" s="70" t="s">
+      <c r="F166" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G156" s="68"/>
-      <c r="H156" s="121"/>
-    </row>
-    <row r="157" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="1" t="s">
+      <c r="G166" s="69"/>
+      <c r="H166" s="122"/>
+    </row>
+    <row r="167" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="168" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C168" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="4"/>
+    </row>
+    <row r="169" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="7"/>
+    </row>
+    <row r="170" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="7"/>
+    </row>
+    <row r="171" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="8"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="10"/>
+    </row>
+    <row r="172" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="132"/>
+      <c r="D172" s="133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" s="133"/>
+      <c r="F172" s="133" t="s">
+        <v>6</v>
+      </c>
+      <c r="G172" s="133" t="s">
+        <v>7</v>
+      </c>
+      <c r="H172" s="134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="37"/>
+      <c r="C173" s="135">
+        <v>1</v>
+      </c>
+      <c r="D173" s="136" t="s">
+        <v>123</v>
+      </c>
+      <c r="E173" s="137"/>
+      <c r="F173" s="136"/>
+      <c r="G173" s="136" t="s">
+        <v>9</v>
+      </c>
+      <c r="H173" s="138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="37"/>
+      <c r="C174" s="139"/>
+      <c r="D174" s="128"/>
+      <c r="E174" s="129">
+        <v>2</v>
+      </c>
+      <c r="F174" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="4"/>
-    </row>
-    <row r="159" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C159" s="5" t="s">
+      <c r="G174" s="131" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174" s="35"/>
+    </row>
+    <row r="175" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="37"/>
+      <c r="C175" s="89"/>
+      <c r="D175" s="90"/>
+      <c r="E175" s="91">
+        <v>3</v>
+      </c>
+      <c r="F175" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="7"/>
-    </row>
-    <row r="160" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="7"/>
-    </row>
-    <row r="161" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" s="8"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="10"/>
-    </row>
-    <row r="162" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="107" t="s">
+      <c r="G175" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175" s="92"/>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="37"/>
+      <c r="C176" s="157">
         <v>4</v>
       </c>
-      <c r="C162" s="131"/>
-      <c r="D162" s="132" t="s">
+      <c r="D176" s="158" t="s">
+        <v>127</v>
+      </c>
+      <c r="E176" s="159"/>
+      <c r="F176" s="158"/>
+      <c r="G176" s="158" t="s">
+        <v>9</v>
+      </c>
+      <c r="H176" s="59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B177" s="37"/>
+      <c r="C177" s="60"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="23">
         <v>5</v>
       </c>
-      <c r="E162" s="132"/>
-      <c r="F162" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="G162" s="132" t="s">
-        <v>7</v>
-      </c>
-      <c r="H162" s="133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B163" s="37"/>
-      <c r="C163" s="134">
-        <v>1</v>
-      </c>
-      <c r="D163" s="135" t="s">
-        <v>126</v>
-      </c>
-      <c r="E163" s="136"/>
-      <c r="F163" s="135"/>
-      <c r="G163" s="135" t="s">
-        <v>9</v>
-      </c>
-      <c r="H163" s="137" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B164" s="37"/>
-      <c r="C164" s="138"/>
-      <c r="D164" s="127"/>
-      <c r="E164" s="128">
-        <v>2</v>
-      </c>
-      <c r="F164" s="129" t="s">
-        <v>127</v>
-      </c>
-      <c r="G164" s="130" t="s">
+      <c r="F177" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G177" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H164" s="35"/>
-    </row>
-    <row r="165" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="37"/>
-      <c r="C165" s="88"/>
-      <c r="D165" s="89"/>
-      <c r="E165" s="90">
-        <v>3</v>
-      </c>
-      <c r="F165" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="G165" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H165" s="91"/>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B166" s="37"/>
-      <c r="C166" s="156">
-        <v>4</v>
-      </c>
-      <c r="D166" s="157" t="s">
-        <v>130</v>
-      </c>
-      <c r="E166" s="158"/>
-      <c r="F166" s="157"/>
-      <c r="G166" s="157" t="s">
-        <v>9</v>
-      </c>
-      <c r="H166" s="58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B167" s="37"/>
-      <c r="C167" s="59"/>
-      <c r="D167" s="24"/>
-      <c r="E167" s="23">
-        <v>5</v>
-      </c>
-      <c r="F167" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G167" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H167" s="32"/>
-    </row>
-    <row r="168" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="139"/>
-      <c r="C168" s="60"/>
-      <c r="D168" s="61"/>
-      <c r="E168" s="62"/>
-      <c r="F168" s="63" t="s">
+      <c r="H177" s="32"/>
+    </row>
+    <row r="178" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="140"/>
+      <c r="C178" s="61"/>
+      <c r="D178" s="62"/>
+      <c r="E178" s="63"/>
+      <c r="F178" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G168" s="61"/>
-      <c r="H168" s="64"/>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F173" s="140"/>
+      <c r="G178" s="62"/>
+      <c r="H178" s="65"/>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F183" s="141"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
-    <mergeCell ref="B162:B168"/>
-    <mergeCell ref="H163:H165"/>
-    <mergeCell ref="H166:H168"/>
-    <mergeCell ref="B154:B156"/>
+  <mergeCells count="119">
+    <mergeCell ref="B172:B178"/>
+    <mergeCell ref="H173:H175"/>
+    <mergeCell ref="H176:H178"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="H164:H166"/>
+    <mergeCell ref="C168:F168"/>
+    <mergeCell ref="C169:F169"/>
+    <mergeCell ref="C170:F170"/>
+    <mergeCell ref="C171:F171"/>
+    <mergeCell ref="H145:H147"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="B153:B163"/>
     <mergeCell ref="H154:H156"/>
-    <mergeCell ref="C158:F158"/>
-    <mergeCell ref="C159:F159"/>
-    <mergeCell ref="C160:F160"/>
-    <mergeCell ref="C161:F161"/>
-    <mergeCell ref="H135:H137"/>
+    <mergeCell ref="H157:H163"/>
+    <mergeCell ref="C137:F137"/>
+    <mergeCell ref="C138:F138"/>
     <mergeCell ref="C139:F139"/>
     <mergeCell ref="C140:F140"/>
-    <mergeCell ref="C141:F141"/>
-    <mergeCell ref="C142:F142"/>
-    <mergeCell ref="B143:B153"/>
-    <mergeCell ref="H144:H146"/>
-    <mergeCell ref="H147:H153"/>
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="C130:F130"/>
-    <mergeCell ref="B131:B137"/>
-    <mergeCell ref="H132:H134"/>
-    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B141:B147"/>
+    <mergeCell ref="H142:H144"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="H133:H135"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="B122:B132"/>
     <mergeCell ref="H123:H125"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="B112:B122"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="H116:H122"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="H126:H132"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="H114:H116"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="C120:F120"/>
+    <mergeCell ref="H104:H107"/>
     <mergeCell ref="C109:F109"/>
     <mergeCell ref="C110:F110"/>
-    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="C98:F98"/>
     <mergeCell ref="C99:F99"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="C102:F102"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="H91:H93"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="H81:H84"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="H69:H72"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="B46:B55"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="H91:H94"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="B75:B84"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="B50:B59"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="H41:H44"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
-    <mergeCell ref="B26:B36"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="B28:B40"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H35:H40"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="H19:H22"/>
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="B6:B18"/>
     <mergeCell ref="H7:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
